--- a/xlsx/ca-Bicholim conflict_intext.xlsx
+++ b/xlsx/ca-Bicholim conflict_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Català</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_ca-Bicholim conflict</t>
+    <t>政策_政策_维基百科_ca-Bicholim conflict</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Viquip%C3%A8dia_en_angl%C3%A8s</t>
